--- a/biology/Botanique/Plante_grimpante/Plante_grimpante.xlsx
+++ b/biology/Botanique/Plante_grimpante/Plante_grimpante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une plante grimpante est une plante capable de s'élever verticalement en s'appuyant, en s'accrochant ou en s'enroulant sur ou autour d'un support vertical, le plus souvent un autre végétal.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue les plantes grimpantes :
 sarmenteuses : tige ligneuse mais flexible s'appuyant à l'aide d'un palissage (comme le sarment de vigne). Exemple : jasmin, Morelle faux jasmin,
@@ -522,7 +536,7 @@
 à rameaux épineux comme les rosiers grimpants, le bougainvillier.
 Le volubilisme utilise deux tropismes pour trouver et s'attacher au support :
 le thigmotropisme : le contact au niveau d'une zone de croissance peut provoquer une inhibition locale de croissance, d'où une courbure dirigée vers le support,
-la circumnutation (en) (ou nutation des plantes) : croissance chirale et mouvement hélicoïdal de l'apex de la tige due à l'auxine activant la synthèse de cellulose synthases (en) qui coordonnent l'extrusion et la cristallisation de molécules de cellulose, donnant ainsi naissance à des microfibrilles cristallines calibrées dont l'agencement hélicoïdal joue un rôle clé dans l'organisation hélicoïdale des parois cellulaires[1]. L'hélice est de sens senestre (plantes sinistrorses : liseron, haricot d'Espagne) ou moins souvent dextre (plantes dextrorses : houblon, chèvrefeuille), plus rarement de sens inconstant (espèces comme la calebasse la Fougère Lygodium)[2].</t>
+la circumnutation (en) (ou nutation des plantes) : croissance chirale et mouvement hélicoïdal de l'apex de la tige due à l'auxine activant la synthèse de cellulose synthases (en) qui coordonnent l'extrusion et la cristallisation de molécules de cellulose, donnant ainsi naissance à des microfibrilles cristallines calibrées dont l'agencement hélicoïdal joue un rôle clé dans l'organisation hélicoïdale des parois cellulaires. L'hélice est de sens senestre (plantes sinistrorses : liseron, haricot d'Espagne) ou moins souvent dextre (plantes dextrorses : houblon, chèvrefeuille), plus rarement de sens inconstant (espèces comme la calebasse la Fougère Lygodium).</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes grimpantes sont souvent employées comme plantes ornementales, notamment pour leur capacité à recouvrir de vieux murs et les transformer en décor végétal.
 </t>
@@ -581,7 +597,9 @@
           <t>Citation littéraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Des plantes grimpantes… accrochant leurs vrilles à un treillage » (Théophile Gautier).
 </t>
